--- a/docs/Einkaufsliste.xlsx
+++ b/docs/Einkaufsliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhle\iCloudDrive\Studium\SHK\teststand-imu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E308D9C9-3FDB-4B6E-BD40-A1DABCBFB798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D76AB-0F08-4999-9448-9EB1989BBF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C87B6E2-D227-4E8F-BB0D-49185F8092DF}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{1C87B6E2-D227-4E8F-BB0D-49185F8092DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>Nema 17 Schrittmotor Bipolar Übersetzung 5:1 Planetengetriebe</t>
+  </si>
+  <si>
+    <t>HTD</t>
+  </si>
+  <si>
+    <t>6804 20x32x7</t>
+  </si>
+  <si>
+    <t>Radialrillenkugellager 2x</t>
+  </si>
+  <si>
+    <t>6704 20x27x4</t>
+  </si>
+  <si>
+    <t>6805 25x37x7</t>
   </si>
 </sst>
 </file>
@@ -466,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0FE8C6-1D12-4EE5-9841-E9B1D9608AE2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,12 +543,44 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{6B0B78A9-C958-4A11-8A4C-F4DE68DF4ACE}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{2F383F7D-BE20-4B64-9030-71FC4E962DC3}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{A5ED530B-C63A-4F9D-B1A5-D2C6D79CF2D6}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{28629B25-7BB3-4853-940F-8ABFD5375343}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{BEDDEEFB-1128-405D-8D2B-871DEAE02CAF}"/>
+    <hyperlink ref="B9" r:id="rId6" display="6804 20x27x4" xr:uid="{B3CD65B4-71A4-4236-A070-761261D24DDC}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{1EC0CF79-D9BD-4581-A4C3-1461C8BDE7FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Einkaufsliste.xlsx
+++ b/docs/Einkaufsliste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anhle\iCloudDrive\Studium\SHK\teststand-imu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615D76AB-0F08-4999-9448-9EB1989BBF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F4F88F-0F80-4F47-80C4-CD29D6C63C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{1C87B6E2-D227-4E8F-BB0D-49185F8092DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1C87B6E2-D227-4E8F-BB0D-49185F8092DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -53,30 +53,15 @@
     <t>Begründung</t>
   </si>
   <si>
-    <t>höheres Haltemoment für mehr Stabilität von 52 Ncm</t>
-  </si>
-  <si>
-    <t>Schrittmotor 1 verbraucht für volles Drehmoment 1,68 A, Modul kann bis zu 2 A steuern</t>
-  </si>
-  <si>
     <t>Schrittmotor 1 (x- und y-Achse)</t>
   </si>
   <si>
     <t>Motortreiber 1 (x- und y-Achse)</t>
   </si>
   <si>
-    <t>TMC2209 V2.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nema 17 Schrittmotor </t>
   </si>
   <si>
-    <t>Nema 17 Schrittmotor Bipolar Übersetzung 5:1 Planetengetriebe</t>
-  </si>
-  <si>
-    <t>HTD</t>
-  </si>
-  <si>
     <t>6804 20x32x7</t>
   </si>
   <si>
@@ -87,6 +72,21 @@
   </si>
   <si>
     <t>6805 25x37x7</t>
+  </si>
+  <si>
+    <t>DRV8825</t>
+  </si>
+  <si>
+    <t>Schrittmotor 1 verbraucht für volles Drehmoment 1,5 A, Modul kann bis zu 2,2 A steuern</t>
+  </si>
+  <si>
+    <t>Drehmoment von 0,42Nm völlig ausreichend</t>
+  </si>
+  <si>
+    <t>Zahnriemen 345-3M-6</t>
+  </si>
+  <si>
+    <t>Zahnriehmen 2x</t>
   </si>
 </sst>
 </file>
@@ -142,10 +142,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -484,7 +482,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,80 +505,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{6B0B78A9-C958-4A11-8A4C-F4DE68DF4ACE}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{2F383F7D-BE20-4B64-9030-71FC4E962DC3}"/>
-    <hyperlink ref="B2" r:id="rId3" xr:uid="{A5ED530B-C63A-4F9D-B1A5-D2C6D79CF2D6}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{28629B25-7BB3-4853-940F-8ABFD5375343}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{BEDDEEFB-1128-405D-8D2B-871DEAE02CAF}"/>
-    <hyperlink ref="B9" r:id="rId6" display="6804 20x27x4" xr:uid="{B3CD65B4-71A4-4236-A070-761261D24DDC}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{1EC0CF79-D9BD-4581-A4C3-1461C8BDE7FE}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{2F383F7D-BE20-4B64-9030-71FC4E962DC3}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{BEDDEEFB-1128-405D-8D2B-871DEAE02CAF}"/>
+    <hyperlink ref="B9" r:id="rId3" display="6804 20x27x4" xr:uid="{B3CD65B4-71A4-4236-A070-761261D24DDC}"/>
+    <hyperlink ref="B10" r:id="rId4" xr:uid="{1EC0CF79-D9BD-4581-A4C3-1461C8BDE7FE}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{1E1840D1-038E-4ED0-AA1B-E859FE44BB0C}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{A3AD59B0-BDFB-4B39-BD63-60BA8E29D4DD}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{F2476FDC-FF1B-44BB-8051-A6D7FA1C3F01}"/>
+    <hyperlink ref="B7" r:id="rId8" xr:uid="{F88135B9-3E5C-46A4-A9FC-8B6D7A7C492E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
